--- a/crowdfunding.xlsx
+++ b/crowdfunding.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65689d30488b232f/Desktop/git/Crowdfunding-ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91A0EAF9-F27B-4EF0-8A55-C475AE5B4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{91A0EAF9-F27B-4EF0-8A55-C475AE5B4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{581DDCD6-54CA-4927-A54A-E530767508E7}"/>
   <bookViews>
-    <workbookView xWindow="36075" yWindow="4185" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crowdfunding_info" sheetId="1" r:id="rId1"/>
     <sheet name="contact_info" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crowdfunding_info!$A$1:$N$1001</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -9498,10 +9501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="F10" sqref="F10:F942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9558,7 +9562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>147</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1621</v>
       </c>
@@ -9646,7 +9650,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1812</v>
       </c>
@@ -9690,7 +9694,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2156</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1365</v>
       </c>
@@ -9778,7 +9782,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2057</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1894</v>
       </c>
@@ -9866,7 +9870,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2669</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>970</v>
       </c>
@@ -9998,7 +10002,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2340</v>
       </c>
@@ -10042,7 +10046,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>601</v>
       </c>
@@ -10086,7 +10090,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1950</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>671</v>
       </c>
@@ -10174,7 +10178,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1683</v>
       </c>
@@ -10218,7 +10222,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>505</v>
       </c>
@@ -10262,7 +10266,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1245</v>
       </c>
@@ -10306,7 +10310,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2550</v>
       </c>
@@ -10350,7 +10354,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>875</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2283</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>118</v>
       </c>
@@ -10482,7 +10486,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>711</v>
       </c>
@@ -10526,7 +10530,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1747</v>
       </c>
@@ -10570,7 +10574,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1825</v>
       </c>
@@ -10614,7 +10618,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1019</v>
       </c>
@@ -10658,7 +10662,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>821</v>
       </c>
@@ -10702,7 +10706,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2653</v>
       </c>
@@ -10746,7 +10750,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2502</v>
       </c>
@@ -10790,7 +10794,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>325</v>
       </c>
@@ -10834,7 +10838,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1345</v>
       </c>
@@ -10878,7 +10882,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2303</v>
       </c>
@@ -10922,7 +10926,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2224</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1173</v>
       </c>
@@ -11010,7 +11014,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>210</v>
       </c>
@@ -11054,7 +11058,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1546</v>
       </c>
@@ -11098,7 +11102,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2871</v>
       </c>
@@ -11142,7 +11146,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2034</v>
       </c>
@@ -11186,7 +11190,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2677</v>
       </c>
@@ -11230,7 +11234,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1865</v>
       </c>
@@ -11274,7 +11278,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>170</v>
       </c>
@@ -11318,7 +11322,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>462</v>
       </c>
@@ -11362,7 +11366,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3122</v>
       </c>
@@ -11406,7 +11410,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1175</v>
       </c>
@@ -11450,7 +11454,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2301</v>
       </c>
@@ -11494,7 +11498,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>91</v>
       </c>
@@ -11538,7 +11542,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>87</v>
       </c>
@@ -11582,7 +11586,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1482</v>
       </c>
@@ -11626,7 +11630,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1711</v>
       </c>
@@ -11670,7 +11674,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2294</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2389</v>
       </c>
@@ -11758,7 +11762,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>378</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1213</v>
       </c>
@@ -11846,7 +11850,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>29</v>
       </c>
@@ -11890,7 +11894,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2309</v>
       </c>
@@ -11934,7 +11938,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2101</v>
       </c>
@@ -11978,7 +11982,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1057</v>
       </c>
@@ -12022,7 +12026,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2655</v>
       </c>
@@ -12066,7 +12070,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>202</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2025</v>
       </c>
@@ -12154,7 +12158,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2395</v>
       </c>
@@ -12198,7 +12202,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1418</v>
       </c>
@@ -12242,7 +12246,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1905</v>
       </c>
@@ -12286,7 +12290,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1969</v>
       </c>
@@ -12330,7 +12334,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2430</v>
       </c>
@@ -12374,7 +12378,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1291</v>
       </c>
@@ -12418,7 +12422,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1934</v>
       </c>
@@ -12462,7 +12466,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1225</v>
       </c>
@@ -12506,7 +12510,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1363</v>
       </c>
@@ -12550,7 +12554,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>963</v>
       </c>
@@ -12594,7 +12598,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1486</v>
       </c>
@@ -12638,7 +12642,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>676</v>
       </c>
@@ -12682,7 +12686,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2137</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2656</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1556</v>
       </c>
@@ -12814,7 +12818,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>747</v>
       </c>
@@ -12858,7 +12862,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>60</v>
       </c>
@@ -12902,7 +12906,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2459</v>
       </c>
@@ -12946,7 +12950,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1903</v>
       </c>
@@ -12990,7 +12994,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2003</v>
       </c>
@@ -13034,7 +13038,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2885</v>
       </c>
@@ -13078,7 +13082,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2067</v>
       </c>
@@ -13122,7 +13126,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1610</v>
       </c>
@@ -13166,7 +13170,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2909</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1239</v>
       </c>
@@ -13254,7 +13258,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2480</v>
       </c>
@@ -13298,7 +13302,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2181</v>
       </c>
@@ -13342,7 +13346,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2030</v>
       </c>
@@ -13386,7 +13390,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2311</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2821</v>
       </c>
@@ -13474,7 +13478,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2468</v>
       </c>
@@ -13518,7 +13522,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>656</v>
       </c>
@@ -13562,7 +13566,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2791</v>
       </c>
@@ -13606,7 +13610,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1527</v>
       </c>
@@ -13650,7 +13654,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1891</v>
       </c>
@@ -13694,7 +13698,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>580</v>
       </c>
@@ -13738,7 +13742,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>682</v>
       </c>
@@ -13782,7 +13786,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3097</v>
       </c>
@@ -13826,7 +13830,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>873</v>
       </c>
@@ -13870,7 +13874,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1668</v>
       </c>
@@ -13914,7 +13918,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3076</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3146</v>
       </c>
@@ -14002,7 +14006,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>253</v>
       </c>
@@ -14046,7 +14050,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>3088</v>
       </c>
@@ -14090,7 +14094,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>393</v>
       </c>
@@ -14134,7 +14138,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2912</v>
       </c>
@@ -14178,7 +14182,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>478</v>
       </c>
@@ -14222,7 +14226,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1061</v>
       </c>
@@ -14266,7 +14270,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2957</v>
       </c>
@@ -14310,7 +14314,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2015</v>
       </c>
@@ -14354,7 +14358,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1179</v>
       </c>
@@ -14398,7 +14402,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2568</v>
       </c>
@@ -14442,7 +14446,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2869</v>
       </c>
@@ -14486,7 +14490,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>718</v>
       </c>
@@ -14530,7 +14534,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1211</v>
       </c>
@@ -14574,7 +14578,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2431</v>
       </c>
@@ -14618,7 +14622,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>468</v>
       </c>
@@ -14662,7 +14666,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1862</v>
       </c>
@@ -14706,7 +14710,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2300</v>
       </c>
@@ -14750,7 +14754,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>449</v>
       </c>
@@ -14794,7 +14798,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>283</v>
       </c>
@@ -14838,7 +14842,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2484</v>
       </c>
@@ -14882,7 +14886,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1490</v>
       </c>
@@ -14926,7 +14930,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>186</v>
       </c>
@@ -14970,7 +14974,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2999</v>
       </c>
@@ -15014,7 +15018,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2819</v>
       </c>
@@ -15058,7 +15062,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2105</v>
       </c>
@@ -15102,7 +15106,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1324</v>
       </c>
@@ -15146,7 +15150,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1952</v>
       </c>
@@ -15190,7 +15194,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2404</v>
       </c>
@@ -15234,7 +15238,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>990</v>
       </c>
@@ -15278,7 +15282,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1459</v>
       </c>
@@ -15322,7 +15326,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1106</v>
       </c>
@@ -15366,7 +15370,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1488</v>
       </c>
@@ -15410,7 +15414,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2107</v>
       </c>
@@ -15454,7 +15458,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2660</v>
       </c>
@@ -15498,7 +15502,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2647</v>
       </c>
@@ -15542,7 +15546,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>565</v>
       </c>
@@ -15586,7 +15590,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2713</v>
       </c>
@@ -15630,7 +15634,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>558</v>
       </c>
@@ -15674,7 +15678,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>698</v>
       </c>
@@ -15718,7 +15722,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>321</v>
       </c>
@@ -15762,7 +15766,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1302</v>
       </c>
@@ -15806,7 +15810,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1410</v>
       </c>
@@ -15850,7 +15854,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2465</v>
       </c>
@@ -15894,7 +15898,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>377</v>
       </c>
@@ -15938,7 +15942,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1882</v>
       </c>
@@ -15982,7 +15986,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>822</v>
       </c>
@@ -16026,7 +16030,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2730</v>
       </c>
@@ -16070,7 +16074,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2198</v>
       </c>
@@ -16114,7 +16118,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2757</v>
       </c>
@@ -16158,7 +16162,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2588</v>
       </c>
@@ -16202,7 +16206,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1090</v>
       </c>
@@ -16246,7 +16250,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>64</v>
       </c>
@@ -16290,7 +16294,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2171</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>625</v>
       </c>
@@ -16378,7 +16382,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1065</v>
       </c>
@@ -16422,7 +16426,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>174</v>
       </c>
@@ -16466,7 +16470,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1344</v>
       </c>
@@ -16510,7 +16514,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2824</v>
       </c>
@@ -16554,7 +16558,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>940</v>
       </c>
@@ -16598,7 +16602,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3024</v>
       </c>
@@ -16642,7 +16646,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2164</v>
       </c>
@@ -16686,7 +16690,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2427</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1548</v>
       </c>
@@ -16774,7 +16778,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2657</v>
       </c>
@@ -16818,7 +16822,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2916</v>
       </c>
@@ -16862,7 +16866,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1348</v>
       </c>
@@ -16906,7 +16910,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>557</v>
       </c>
@@ -16950,7 +16954,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2915</v>
       </c>
@@ -16994,7 +16998,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>320</v>
       </c>
@@ -17038,7 +17042,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1458</v>
       </c>
@@ -17082,7 +17086,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>379</v>
       </c>
@@ -17126,7 +17130,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1879</v>
       </c>
@@ -17170,7 +17174,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>597</v>
       </c>
@@ -17214,7 +17218,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1130</v>
       </c>
@@ -17258,7 +17262,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2354</v>
       </c>
@@ -17302,7 +17306,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1358</v>
       </c>
@@ -17346,7 +17350,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>188</v>
       </c>
@@ -17390,7 +17394,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2228</v>
       </c>
@@ -17434,7 +17438,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1743</v>
       </c>
@@ -17478,7 +17482,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2563</v>
       </c>
@@ -17522,7 +17526,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2424</v>
       </c>
@@ -17566,7 +17570,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2369</v>
       </c>
@@ -17610,7 +17614,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1134</v>
       </c>
@@ -17654,7 +17658,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2241</v>
       </c>
@@ -17698,7 +17702,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2745</v>
       </c>
@@ -17742,7 +17746,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1055</v>
       </c>
@@ -17786,7 +17790,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1215</v>
       </c>
@@ -17830,7 +17834,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2036</v>
       </c>
@@ -17874,7 +17878,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1191</v>
       </c>
@@ -17918,7 +17922,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>879</v>
       </c>
@@ -17962,7 +17966,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3062</v>
       </c>
@@ -18006,7 +18010,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>611</v>
       </c>
@@ -18050,7 +18054,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3195</v>
       </c>
@@ -18094,7 +18098,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1221</v>
       </c>
@@ -18138,7 +18142,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2536</v>
       </c>
@@ -18182,7 +18186,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1834</v>
       </c>
@@ -18226,7 +18230,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>593</v>
       </c>
@@ -18270,7 +18274,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3039</v>
       </c>
@@ -18314,7 +18318,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>777</v>
       </c>
@@ -18358,7 +18362,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>835</v>
       </c>
@@ -18402,7 +18406,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>797</v>
       </c>
@@ -18446,7 +18450,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>509</v>
       </c>
@@ -18490,7 +18494,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2286</v>
       </c>
@@ -18534,7 +18538,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2110</v>
       </c>
@@ -18578,7 +18582,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1038</v>
       </c>
@@ -18622,7 +18626,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2893</v>
       </c>
@@ -18666,7 +18670,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>805</v>
       </c>
@@ -18710,7 +18714,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>225</v>
       </c>
@@ -18798,7 +18802,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1369</v>
       </c>
@@ -18842,7 +18846,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1417</v>
       </c>
@@ -18886,7 +18890,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>3011</v>
       </c>
@@ -18930,7 +18934,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2691</v>
       </c>
@@ -18974,7 +18978,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2159</v>
       </c>
@@ -19018,7 +19022,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2515</v>
       </c>
@@ -19062,7 +19066,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>544</v>
       </c>
@@ -19106,7 +19110,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3030</v>
       </c>
@@ -19150,7 +19154,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>817</v>
       </c>
@@ -19194,7 +19198,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1400</v>
       </c>
@@ -19238,7 +19242,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>657</v>
       </c>
@@ -19282,7 +19286,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>966</v>
       </c>
@@ -19326,7 +19330,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1558</v>
       </c>
@@ -19370,7 +19374,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1379</v>
       </c>
@@ -19414,7 +19418,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>286</v>
       </c>
@@ -19458,7 +19462,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>894</v>
       </c>
@@ -19502,7 +19506,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>709</v>
       </c>
@@ -19546,7 +19550,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1599</v>
       </c>
@@ -19590,7 +19594,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>905</v>
       </c>
@@ -19634,7 +19638,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>146</v>
       </c>
@@ -19678,7 +19682,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1632</v>
       </c>
@@ -19722,7 +19726,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>537</v>
       </c>
@@ -19766,7 +19770,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1289</v>
       </c>
@@ -19810,7 +19814,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2712</v>
       </c>
@@ -19854,7 +19858,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1980</v>
       </c>
@@ -19898,7 +19902,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>296</v>
       </c>
@@ -19942,7 +19946,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1760</v>
       </c>
@@ -19986,7 +19990,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2435</v>
       </c>
@@ -20030,7 +20034,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2343</v>
       </c>
@@ -20074,7 +20078,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2556</v>
       </c>
@@ -20118,7 +20122,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2495</v>
       </c>
@@ -20162,7 +20166,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2497</v>
       </c>
@@ -20206,7 +20210,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1955</v>
       </c>
@@ -20250,7 +20254,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1129</v>
       </c>
@@ -20294,7 +20298,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>636</v>
       </c>
@@ -20338,7 +20342,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>434</v>
       </c>
@@ -20382,7 +20386,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1231</v>
       </c>
@@ -20426,7 +20430,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3162</v>
       </c>
@@ -20470,7 +20474,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1717</v>
       </c>
@@ -20514,7 +20518,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>211</v>
       </c>
@@ -20558,7 +20562,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2635</v>
       </c>
@@ -20602,7 +20606,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1854</v>
       </c>
@@ -20646,7 +20650,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>436</v>
       </c>
@@ -20690,7 +20694,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2965</v>
       </c>
@@ -20734,7 +20738,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1034</v>
       </c>
@@ -20778,7 +20782,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>614</v>
       </c>
@@ -20822,7 +20826,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1792</v>
       </c>
@@ -20866,7 +20870,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>121</v>
       </c>
@@ -20910,7 +20914,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2936</v>
       </c>
@@ -20954,7 +20958,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2081</v>
       </c>
@@ -20998,7 +21002,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1204</v>
       </c>
@@ -21042,7 +21046,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>669</v>
       </c>
@@ -21086,7 +21090,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>735</v>
       </c>
@@ -21130,7 +21134,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>933</v>
       </c>
@@ -21174,7 +21178,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3055</v>
       </c>
@@ -21218,7 +21222,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>270</v>
       </c>
@@ -21262,7 +21266,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>647</v>
       </c>
@@ -21306,7 +21310,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1219</v>
       </c>
@@ -21350,7 +21354,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1257</v>
       </c>
@@ -21394,7 +21398,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2162</v>
       </c>
@@ -21438,7 +21442,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2274</v>
       </c>
@@ -21526,7 +21530,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>407</v>
       </c>
@@ -21570,7 +21574,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2440</v>
       </c>
@@ -21614,7 +21618,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2476</v>
       </c>
@@ -21658,7 +21662,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>41</v>
       </c>
@@ -21702,7 +21706,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>890</v>
       </c>
@@ -21746,7 +21750,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2743</v>
       </c>
@@ -21790,7 +21794,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>266</v>
       </c>
@@ -21834,7 +21838,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3113</v>
       </c>
@@ -21878,7 +21882,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1909</v>
       </c>
@@ -21922,7 +21926,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>962</v>
       </c>
@@ -21966,7 +21970,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>213</v>
       </c>
@@ -22010,7 +22014,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2741</v>
       </c>
@@ -22054,7 +22058,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2589</v>
       </c>
@@ -22098,7 +22102,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1238</v>
       </c>
@@ -22142,7 +22146,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>164</v>
       </c>
@@ -22186,7 +22190,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2685</v>
       </c>
@@ -22230,7 +22234,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2836</v>
       </c>
@@ -22274,7 +22278,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2062</v>
       </c>
@@ -22318,7 +22322,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3111</v>
       </c>
@@ -22362,7 +22366,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1414</v>
       </c>
@@ -22406,7 +22410,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2765</v>
       </c>
@@ -22450,7 +22454,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>939</v>
       </c>
@@ -22494,7 +22498,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>390</v>
       </c>
@@ -22538,7 +22542,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2851</v>
       </c>
@@ -22582,7 +22586,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1607</v>
       </c>
@@ -22626,7 +22630,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>3201</v>
       </c>
@@ -22670,7 +22674,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>641</v>
       </c>
@@ -22714,7 +22718,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>524</v>
       </c>
@@ -22758,7 +22762,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2423</v>
       </c>
@@ -22802,7 +22806,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1532</v>
       </c>
@@ -22846,7 +22850,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1748</v>
       </c>
@@ -22890,7 +22894,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>3168</v>
       </c>
@@ -22934,7 +22938,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1077</v>
       </c>
@@ -22978,7 +22982,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>3114</v>
       </c>
@@ -23022,7 +23026,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2547</v>
       </c>
@@ -23066,7 +23070,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2065</v>
       </c>
@@ -23110,7 +23114,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1143</v>
       </c>
@@ -23154,7 +23158,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2545</v>
       </c>
@@ -23198,7 +23202,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1315</v>
       </c>
@@ -23242,7 +23246,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2219</v>
       </c>
@@ -23286,7 +23290,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>854</v>
       </c>
@@ -23330,7 +23334,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>336</v>
       </c>
@@ -23374,7 +23378,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3014</v>
       </c>
@@ -23418,7 +23422,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>326</v>
       </c>
@@ -23462,7 +23466,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2991</v>
       </c>
@@ -23506,7 +23510,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1359</v>
       </c>
@@ -23550,7 +23554,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>341</v>
       </c>
@@ -23594,7 +23598,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2365</v>
       </c>
@@ -23638,7 +23642,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>358</v>
       </c>
@@ -23682,7 +23686,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>583</v>
       </c>
@@ -23726,7 +23730,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1373</v>
       </c>
@@ -23770,7 +23774,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2665</v>
       </c>
@@ -23814,7 +23818,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2500</v>
       </c>
@@ -23858,7 +23862,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>921</v>
       </c>
@@ -23902,7 +23906,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>135</v>
       </c>
@@ -23946,7 +23950,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2413</v>
       </c>
@@ -23990,7 +23994,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>3004</v>
       </c>
@@ -24078,7 +24082,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2726</v>
       </c>
@@ -24122,7 +24126,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2049</v>
       </c>
@@ -24166,7 +24170,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1732</v>
       </c>
@@ -24210,7 +24214,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1174</v>
       </c>
@@ -24254,7 +24258,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1194</v>
       </c>
@@ -24298,7 +24302,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>3176</v>
       </c>
@@ -24342,7 +24346,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>642</v>
       </c>
@@ -24386,7 +24390,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>34</v>
       </c>
@@ -24430,7 +24434,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>217</v>
       </c>
@@ -24474,7 +24478,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1693</v>
       </c>
@@ -24518,7 +24522,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2333</v>
       </c>
@@ -24562,7 +24566,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>80</v>
       </c>
@@ -24606,7 +24610,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2847</v>
       </c>
@@ -24650,7 +24654,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>3104</v>
       </c>
@@ -24694,7 +24698,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>980</v>
       </c>
@@ -24738,7 +24742,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>476</v>
       </c>
@@ -24782,7 +24786,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>116</v>
       </c>
@@ -24826,7 +24830,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2900</v>
       </c>
@@ -24870,7 +24874,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>553</v>
       </c>
@@ -24914,7 +24918,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2834</v>
       </c>
@@ -24958,7 +24962,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2314</v>
       </c>
@@ -25002,7 +25006,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2005</v>
       </c>
@@ -25046,7 +25050,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2514</v>
       </c>
@@ -25090,7 +25094,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>702</v>
       </c>
@@ -25134,7 +25138,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>42</v>
       </c>
@@ -25222,7 +25226,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2926</v>
       </c>
@@ -25266,7 +25270,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1971</v>
       </c>
@@ -25310,7 +25314,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>748</v>
       </c>
@@ -25354,7 +25358,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>684</v>
       </c>
@@ -25398,7 +25402,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>385</v>
       </c>
@@ -25442,7 +25446,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>3007</v>
       </c>
@@ -25486,7 +25490,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2612</v>
       </c>
@@ -25530,7 +25534,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>807</v>
       </c>
@@ -25574,7 +25578,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2087</v>
       </c>
@@ -25618,7 +25622,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>53</v>
       </c>
@@ -25662,7 +25666,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2944</v>
       </c>
@@ -25706,7 +25710,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2963</v>
       </c>
@@ -25750,7 +25754,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2976</v>
       </c>
@@ -25794,7 +25798,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>3051</v>
       </c>
@@ -25838,7 +25842,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2777</v>
       </c>
@@ -25882,7 +25886,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>3064</v>
       </c>
@@ -25926,7 +25930,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>56</v>
       </c>
@@ -25970,7 +25974,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>763</v>
       </c>
@@ -26014,7 +26018,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>896</v>
       </c>
@@ -26058,7 +26062,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1409</v>
       </c>
@@ -26102,7 +26106,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2889</v>
       </c>
@@ -26146,7 +26150,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2338</v>
       </c>
@@ -26190,7 +26194,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2905</v>
       </c>
@@ -26234,7 +26238,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1779</v>
       </c>
@@ -26278,7 +26282,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2291</v>
       </c>
@@ -26322,7 +26326,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>3192</v>
       </c>
@@ -26366,7 +26370,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1696</v>
       </c>
@@ -26410,7 +26414,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1559</v>
       </c>
@@ -26454,7 +26458,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1405</v>
       </c>
@@ -26498,7 +26502,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>521</v>
       </c>
@@ -26542,7 +26546,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1625</v>
       </c>
@@ -26586,7 +26590,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2808</v>
       </c>
@@ -26630,7 +26634,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>764</v>
       </c>
@@ -26674,7 +26678,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>834</v>
       </c>
@@ -26718,7 +26722,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2793</v>
       </c>
@@ -26762,7 +26766,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2901</v>
       </c>
@@ -26806,7 +26810,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2141</v>
       </c>
@@ -26850,7 +26854,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>308</v>
       </c>
@@ -26894,7 +26898,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>705</v>
       </c>
@@ -26938,7 +26942,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1670</v>
       </c>
@@ -26982,7 +26986,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1159</v>
       </c>
@@ -27026,7 +27030,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2592</v>
       </c>
@@ -27070,7 +27074,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1195</v>
       </c>
@@ -27114,7 +27118,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1635</v>
       </c>
@@ -27158,7 +27162,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2432</v>
       </c>
@@ -27202,7 +27206,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>109</v>
       </c>
@@ -27246,7 +27250,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1509</v>
       </c>
@@ -27290,7 +27294,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1285</v>
       </c>
@@ -27334,7 +27338,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>500</v>
       </c>
@@ -27378,7 +27382,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2835</v>
       </c>
@@ -27422,7 +27426,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1533</v>
       </c>
@@ -27466,7 +27470,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2445</v>
       </c>
@@ -27510,7 +27514,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2906</v>
       </c>
@@ -27554,7 +27558,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1237</v>
       </c>
@@ -27642,7 +27646,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>254</v>
       </c>
@@ -27686,7 +27690,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>576</v>
       </c>
@@ -27774,7 +27778,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2201</v>
       </c>
@@ -27818,7 +27822,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1339</v>
       </c>
@@ -27862,7 +27866,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>197</v>
       </c>
@@ -27906,7 +27910,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2035</v>
       </c>
@@ -27950,7 +27954,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1739</v>
       </c>
@@ -27994,7 +27998,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2352</v>
       </c>
@@ -28038,7 +28042,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>691</v>
       </c>
@@ -28082,7 +28086,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>298</v>
       </c>
@@ -28126,7 +28130,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>206</v>
       </c>
@@ -28170,7 +28174,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1003</v>
       </c>
@@ -28214,7 +28218,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1653</v>
       </c>
@@ -28258,7 +28262,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1549</v>
       </c>
@@ -28302,7 +28306,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1026</v>
       </c>
@@ -28346,7 +28350,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2523</v>
       </c>
@@ -28390,7 +28394,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1620</v>
       </c>
@@ -28434,7 +28438,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2594</v>
       </c>
@@ -28478,7 +28482,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>539</v>
       </c>
@@ -28522,7 +28526,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>687</v>
       </c>
@@ -28566,7 +28570,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2302</v>
       </c>
@@ -28610,7 +28614,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>694</v>
       </c>
@@ -28654,7 +28658,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>3123</v>
       </c>
@@ -28698,7 +28702,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2576</v>
       </c>
@@ -28742,7 +28746,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2349</v>
       </c>
@@ -28786,7 +28790,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>516</v>
       </c>
@@ -28830,7 +28834,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>290</v>
       </c>
@@ -28874,7 +28878,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1691</v>
       </c>
@@ -28918,7 +28922,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1689</v>
       </c>
@@ -28962,7 +28966,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2403</v>
       </c>
@@ -29006,7 +29010,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>3203</v>
       </c>
@@ -29050,7 +29054,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2113</v>
       </c>
@@ -29094,7 +29098,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>3158</v>
       </c>
@@ -29138,7 +29142,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>348</v>
       </c>
@@ -29182,7 +29186,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1136</v>
       </c>
@@ -29226,7 +29230,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>956</v>
       </c>
@@ -29270,7 +29274,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2393</v>
       </c>
@@ -29314,7 +29318,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>3208</v>
       </c>
@@ -29358,7 +29362,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2530</v>
       </c>
@@ -29402,7 +29406,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>305</v>
       </c>
@@ -29446,7 +29450,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1383</v>
       </c>
@@ -29490,7 +29494,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>783</v>
       </c>
@@ -29534,7 +29538,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>47</v>
       </c>
@@ -29578,7 +29582,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>3157</v>
       </c>
@@ -29622,7 +29626,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1646</v>
       </c>
@@ -29666,7 +29670,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1729</v>
       </c>
@@ -29710,7 +29714,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2964</v>
       </c>
@@ -29754,7 +29758,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>675</v>
       </c>
@@ -29798,7 +29802,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>790</v>
       </c>
@@ -29842,7 +29846,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1103</v>
       </c>
@@ -29886,7 +29890,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>969</v>
       </c>
@@ -29930,7 +29934,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1634</v>
       </c>
@@ -29974,7 +29978,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2279</v>
       </c>
@@ -30018,7 +30022,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>387</v>
       </c>
@@ -30062,7 +30066,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>586</v>
       </c>
@@ -30106,7 +30110,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>1145</v>
       </c>
@@ -30150,7 +30154,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2776</v>
       </c>
@@ -30194,7 +30198,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2099</v>
       </c>
@@ -30238,7 +30242,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -30282,7 +30286,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>343</v>
       </c>
@@ -30326,7 +30330,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2090</v>
       </c>
@@ -30370,7 +30374,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1401</v>
       </c>
@@ -30414,7 +30418,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>596</v>
       </c>
@@ -30458,7 +30462,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1139</v>
       </c>
@@ -30502,7 +30506,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2080</v>
       </c>
@@ -30546,7 +30550,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>88</v>
       </c>
@@ -30590,7 +30594,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2806</v>
       </c>
@@ -30634,7 +30638,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>3153</v>
       </c>
@@ -30678,7 +30682,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2391</v>
       </c>
@@ -30722,7 +30726,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>84</v>
       </c>
@@ -30766,7 +30770,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1987</v>
       </c>
@@ -30810,7 +30814,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2790</v>
       </c>
@@ -30854,7 +30858,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>37</v>
       </c>
@@ -30898,7 +30902,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2981</v>
       </c>
@@ -30942,7 +30946,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1730</v>
       </c>
@@ -30986,7 +30990,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>3172</v>
       </c>
@@ -31030,7 +31034,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>32</v>
       </c>
@@ -31074,7 +31078,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2322</v>
       </c>
@@ -31118,7 +31122,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1095</v>
       </c>
@@ -31162,7 +31166,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1067</v>
       </c>
@@ -31206,7 +31210,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2676</v>
       </c>
@@ -31250,7 +31254,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>549</v>
       </c>
@@ -31294,7 +31298,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>302</v>
       </c>
@@ -31338,7 +31342,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2758</v>
       </c>
@@ -31382,7 +31386,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2450</v>
       </c>
@@ -31426,7 +31430,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2310</v>
       </c>
@@ -31470,7 +31474,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2185</v>
       </c>
@@ -31514,7 +31518,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1929</v>
       </c>
@@ -31558,7 +31562,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1823</v>
       </c>
@@ -31602,7 +31606,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>699</v>
       </c>
@@ -31646,7 +31650,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1926</v>
       </c>
@@ -31690,7 +31694,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2208</v>
       </c>
@@ -31734,7 +31738,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>3136</v>
       </c>
@@ -31778,7 +31782,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>1623</v>
       </c>
@@ -31822,7 +31826,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>277</v>
       </c>
@@ -31866,7 +31870,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1522</v>
       </c>
@@ -31910,7 +31914,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2582</v>
       </c>
@@ -31954,7 +31958,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>595</v>
       </c>
@@ -31998,7 +32002,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1060</v>
       </c>
@@ -32042,7 +32046,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2551</v>
       </c>
@@ -32086,7 +32090,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>975</v>
       </c>
@@ -32130,7 +32134,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>300</v>
       </c>
@@ -32174,7 +32178,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>1883</v>
       </c>
@@ -32218,7 +32222,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2973</v>
       </c>
@@ -32262,7 +32266,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>1831</v>
       </c>
@@ -32306,7 +32310,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>3019</v>
       </c>
@@ -32350,7 +32354,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>1598</v>
       </c>
@@ -32394,7 +32398,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>1898</v>
       </c>
@@ -32438,7 +32442,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>944</v>
       </c>
@@ -32482,7 +32486,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2775</v>
       </c>
@@ -32526,7 +32530,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2021</v>
       </c>
@@ -32570,7 +32574,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>1473</v>
       </c>
@@ -32614,7 +32618,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>353</v>
       </c>
@@ -32658,7 +32662,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>400</v>
       </c>
@@ -32702,7 +32706,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>930</v>
       </c>
@@ -32746,7 +32750,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1281</v>
       </c>
@@ -32790,7 +32794,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>726</v>
       </c>
@@ -32834,7 +32838,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2177</v>
       </c>
@@ -32878,7 +32882,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1652</v>
       </c>
@@ -32966,7 +32970,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>911</v>
       </c>
@@ -33010,7 +33014,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2082</v>
       </c>
@@ -33054,7 +33058,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>458</v>
       </c>
@@ -33098,7 +33102,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1085</v>
       </c>
@@ -33142,7 +33146,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1451</v>
       </c>
@@ -33186,7 +33190,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1068</v>
       </c>
@@ -33230,7 +33234,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>241</v>
       </c>
@@ -33274,7 +33278,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2654</v>
       </c>
@@ -33318,7 +33322,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>159</v>
       </c>
@@ -33362,7 +33366,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>1010</v>
       </c>
@@ -33406,7 +33410,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>1807</v>
       </c>
@@ -33450,7 +33454,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1135</v>
       </c>
@@ -33494,7 +33498,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1859</v>
       </c>
@@ -33538,7 +33542,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>1265</v>
       </c>
@@ -33582,7 +33586,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2648</v>
       </c>
@@ -33626,7 +33630,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>141</v>
       </c>
@@ -33670,7 +33674,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>1944</v>
       </c>
@@ -33714,7 +33718,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>3187</v>
       </c>
@@ -33758,7 +33762,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>1436</v>
       </c>
@@ -33802,7 +33806,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>1384</v>
       </c>
@@ -33846,7 +33850,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2446</v>
       </c>
@@ -33890,7 +33894,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2215</v>
       </c>
@@ -33934,7 +33938,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2704</v>
       </c>
@@ -33978,7 +33982,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2470</v>
       </c>
@@ -34022,7 +34026,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>1056</v>
       </c>
@@ -34066,7 +34070,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>1278</v>
       </c>
@@ -34110,7 +34114,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2987</v>
       </c>
@@ -34154,7 +34158,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>417</v>
       </c>
@@ -34198,7 +34202,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>670</v>
       </c>
@@ -34242,7 +34246,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>1427</v>
       </c>
@@ -34286,7 +34290,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2918</v>
       </c>
@@ -34330,7 +34334,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>306</v>
       </c>
@@ -34374,7 +34378,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>1714</v>
       </c>
@@ -34418,7 +34422,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>1354</v>
       </c>
@@ -34462,7 +34466,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>810</v>
       </c>
@@ -34506,7 +34510,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>304</v>
       </c>
@@ -34550,7 +34554,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>752</v>
       </c>
@@ -34594,7 +34598,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2254</v>
       </c>
@@ -34638,7 +34642,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>1654</v>
       </c>
@@ -34682,7 +34686,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2729</v>
       </c>
@@ -34726,7 +34730,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>913</v>
       </c>
@@ -34770,7 +34774,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>1388</v>
       </c>
@@ -34814,7 +34818,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>76</v>
       </c>
@@ -34858,7 +34862,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>1172</v>
       </c>
@@ -34902,7 +34906,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2579</v>
       </c>
@@ -34946,7 +34950,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2371</v>
       </c>
@@ -34990,7 +34994,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>359</v>
       </c>
@@ -35034,7 +35038,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>1423</v>
       </c>
@@ -35078,7 +35082,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2239</v>
       </c>
@@ -35122,7 +35126,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>1835</v>
       </c>
@@ -35166,7 +35170,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2097</v>
       </c>
@@ -35210,7 +35214,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>1165</v>
       </c>
@@ -35254,7 +35258,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>1368</v>
       </c>
@@ -35298,7 +35302,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2331</v>
       </c>
@@ -35342,7 +35346,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>3145</v>
       </c>
@@ -35386,7 +35390,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2313</v>
       </c>
@@ -35430,7 +35434,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>251</v>
       </c>
@@ -35474,7 +35478,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>1956</v>
       </c>
@@ -35518,7 +35522,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>1575</v>
       </c>
@@ -35562,7 +35566,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>1917</v>
       </c>
@@ -35606,7 +35610,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2447</v>
       </c>
@@ -35650,7 +35654,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>1813</v>
       </c>
@@ -35694,7 +35698,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>367</v>
       </c>
@@ -35738,7 +35742,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>1803</v>
       </c>
@@ -35782,7 +35786,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>284</v>
       </c>
@@ -35826,7 +35830,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2603</v>
       </c>
@@ -35870,7 +35874,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>653</v>
       </c>
@@ -35914,7 +35918,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>1131</v>
       </c>
@@ -35958,7 +35962,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>349</v>
       </c>
@@ -36002,7 +36006,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2509</v>
       </c>
@@ -36046,7 +36050,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>3139</v>
       </c>
@@ -36090,7 +36094,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>480</v>
       </c>
@@ -36134,7 +36138,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>1205</v>
       </c>
@@ -36178,7 +36182,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>291</v>
       </c>
@@ -36222,7 +36226,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>1758</v>
       </c>
@@ -36266,7 +36270,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>766</v>
       </c>
@@ -36310,7 +36314,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>569</v>
       </c>
@@ -36354,7 +36358,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>50</v>
       </c>
@@ -36398,7 +36402,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>1875</v>
       </c>
@@ -36442,7 +36446,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>3040</v>
       </c>
@@ -36486,7 +36490,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>179</v>
       </c>
@@ -36530,7 +36534,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>114</v>
       </c>
@@ -36574,7 +36578,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>260</v>
       </c>
@@ -36618,7 +36622,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>1810</v>
       </c>
@@ -36662,7 +36666,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>68</v>
       </c>
@@ -36706,7 +36710,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>1148</v>
       </c>
@@ -36750,7 +36754,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2489</v>
       </c>
@@ -36794,7 +36798,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>1586</v>
       </c>
@@ -36838,7 +36842,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2339</v>
       </c>
@@ -36882,7 +36886,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>1687</v>
       </c>
@@ -36926,7 +36930,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>1260</v>
       </c>
@@ -36970,7 +36974,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2240</v>
       </c>
@@ -37014,7 +37018,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>1762</v>
       </c>
@@ -37058,7 +37062,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>331</v>
       </c>
@@ -37102,7 +37106,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>1330</v>
       </c>
@@ -37146,7 +37150,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>427</v>
       </c>
@@ -37190,7 +37194,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2929</v>
       </c>
@@ -37234,7 +37238,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2940</v>
       </c>
@@ -37278,7 +37282,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2047</v>
       </c>
@@ -37322,7 +37326,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>536</v>
       </c>
@@ -37410,7 +37414,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>30</v>
       </c>
@@ -37454,7 +37458,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>1151</v>
       </c>
@@ -37498,7 +37502,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>1484</v>
       </c>
@@ -37542,7 +37546,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>1941</v>
       </c>
@@ -37586,7 +37590,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>546</v>
       </c>
@@ -37630,7 +37634,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>221</v>
       </c>
@@ -37718,7 +37722,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2938</v>
       </c>
@@ -37762,7 +37766,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>785</v>
       </c>
@@ -37806,7 +37810,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2785</v>
       </c>
@@ -37850,7 +37854,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>876</v>
       </c>
@@ -37894,7 +37898,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>932</v>
       </c>
@@ -37938,7 +37942,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>507</v>
       </c>
@@ -37982,7 +37986,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>1672</v>
       </c>
@@ -38026,7 +38030,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>917</v>
       </c>
@@ -38070,7 +38074,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2931</v>
       </c>
@@ -38114,7 +38118,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2415</v>
       </c>
@@ -38158,7 +38162,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>1805</v>
       </c>
@@ -38202,7 +38206,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>495</v>
       </c>
@@ -38246,7 +38250,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2988</v>
       </c>
@@ -38290,7 +38294,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>3169</v>
       </c>
@@ -38334,7 +38338,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>467</v>
       </c>
@@ -38378,7 +38382,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>1551</v>
       </c>
@@ -38422,7 +38426,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2467</v>
       </c>
@@ -38466,7 +38470,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>1193</v>
       </c>
@@ -38510,7 +38514,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>1016</v>
       </c>
@@ -38554,7 +38558,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>313</v>
       </c>
@@ -38598,7 +38602,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>117</v>
       </c>
@@ -38642,7 +38646,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>2747</v>
       </c>
@@ -38686,7 +38690,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>1244</v>
       </c>
@@ -38730,7 +38734,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>564</v>
       </c>
@@ -38774,7 +38778,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>3129</v>
       </c>
@@ -38818,7 +38822,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>800</v>
       </c>
@@ -38862,7 +38866,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>1255</v>
       </c>
@@ -38906,7 +38910,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>2448</v>
       </c>
@@ -38950,7 +38954,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>578</v>
       </c>
@@ -38994,7 +38998,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>418</v>
       </c>
@@ -39038,7 +39042,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>255</v>
       </c>
@@ -39082,7 +39086,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>1918</v>
       </c>
@@ -39126,7 +39130,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>2837</v>
       </c>
@@ -39170,7 +39174,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>842</v>
       </c>
@@ -39214,7 +39218,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>503</v>
       </c>
@@ -39258,7 +39262,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>602</v>
       </c>
@@ -39302,7 +39306,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>1317</v>
       </c>
@@ -39346,7 +39350,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>2071</v>
       </c>
@@ -39390,7 +39394,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2773</v>
       </c>
@@ -39434,7 +39438,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>1814</v>
       </c>
@@ -39478,7 +39482,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2600</v>
       </c>
@@ -39522,7 +39526,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>426</v>
       </c>
@@ -39566,7 +39570,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>2206</v>
       </c>
@@ -39610,7 +39614,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>2032</v>
       </c>
@@ -39654,7 +39658,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>397</v>
       </c>
@@ -39698,7 +39702,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>865</v>
       </c>
@@ -39742,7 +39746,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>3027</v>
       </c>
@@ -39786,7 +39790,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>31</v>
       </c>
@@ -39830,7 +39834,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>1234</v>
       </c>
@@ -39874,7 +39878,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>497</v>
       </c>
@@ -39918,7 +39922,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>2084</v>
       </c>
@@ -39962,7 +39966,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>337</v>
       </c>
@@ -40006,7 +40010,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>3182</v>
       </c>
@@ -40050,7 +40054,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>1494</v>
       </c>
@@ -40094,7 +40098,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>2570</v>
       </c>
@@ -40138,7 +40142,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>2205</v>
       </c>
@@ -40182,7 +40186,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>314</v>
       </c>
@@ -40226,7 +40230,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>1659</v>
       </c>
@@ -40270,7 +40274,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>1656</v>
       </c>
@@ -40314,7 +40318,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>514</v>
       </c>
@@ -40358,7 +40362,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>649</v>
       </c>
@@ -40402,7 +40406,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>1769</v>
       </c>
@@ -40446,7 +40450,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>33</v>
       </c>
@@ -40490,7 +40494,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>195</v>
       </c>
@@ -40534,7 +40538,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>742</v>
       </c>
@@ -40578,7 +40582,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>2093</v>
       </c>
@@ -40622,7 +40626,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>1338</v>
       </c>
@@ -40666,7 +40670,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>52</v>
       </c>
@@ -40710,7 +40714,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>1651</v>
       </c>
@@ -40754,7 +40758,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>452</v>
       </c>
@@ -40798,7 +40802,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>1808</v>
       </c>
@@ -40842,7 +40846,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>2288</v>
       </c>
@@ -40886,7 +40890,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>1855</v>
       </c>
@@ -40930,7 +40934,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>3035</v>
       </c>
@@ -40974,7 +40978,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>2285</v>
       </c>
@@ -41018,7 +41022,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>1203</v>
       </c>
@@ -41062,7 +41066,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>2852</v>
       </c>
@@ -41106,7 +41110,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>2160</v>
       </c>
@@ -41150,7 +41154,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>113</v>
       </c>
@@ -41194,7 +41198,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>2609</v>
       </c>
@@ -41238,7 +41242,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>2529</v>
       </c>
@@ -41282,7 +41286,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>1780</v>
       </c>
@@ -41326,7 +41330,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>1840</v>
       </c>
@@ -41370,7 +41374,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>2280</v>
       </c>
@@ -41414,7 +41418,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>3150</v>
       </c>
@@ -41458,7 +41462,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>2490</v>
       </c>
@@ -41502,7 +41506,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>3081</v>
       </c>
@@ -41546,7 +41550,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>1954</v>
       </c>
@@ -41590,7 +41594,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>2560</v>
       </c>
@@ -41634,7 +41638,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>1071</v>
       </c>
@@ -41678,7 +41682,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>1649</v>
       </c>
@@ -41722,7 +41726,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>685</v>
       </c>
@@ -41766,7 +41770,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>1069</v>
       </c>
@@ -41810,7 +41814,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>1277</v>
       </c>
@@ -41854,7 +41858,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>2764</v>
       </c>
@@ -41898,7 +41902,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>959</v>
       </c>
@@ -41942,7 +41946,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>1746</v>
       </c>
@@ -41986,7 +41990,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>2392</v>
       </c>
@@ -42030,7 +42034,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>2762</v>
       </c>
@@ -42074,7 +42078,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>1699</v>
       </c>
@@ -42118,7 +42122,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>220</v>
       </c>
@@ -42162,7 +42166,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>285</v>
       </c>
@@ -42206,7 +42210,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>2182</v>
       </c>
@@ -42250,7 +42254,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>2244</v>
       </c>
@@ -42294,7 +42298,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>2357</v>
       </c>
@@ -42338,7 +42342,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>971</v>
       </c>
@@ -42382,7 +42386,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>2077</v>
       </c>
@@ -42426,7 +42430,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>2197</v>
       </c>
@@ -42470,7 +42474,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>1294</v>
       </c>
@@ -42514,7 +42518,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>1111</v>
       </c>
@@ -42558,7 +42562,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>985</v>
       </c>
@@ -42602,7 +42606,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>487</v>
       </c>
@@ -42646,7 +42650,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>1496</v>
       </c>
@@ -42690,7 +42694,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>3054</v>
       </c>
@@ -42734,7 +42738,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>501</v>
       </c>
@@ -42778,7 +42782,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>632</v>
       </c>
@@ -42822,7 +42826,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>1253</v>
       </c>
@@ -42866,7 +42870,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>665</v>
       </c>
@@ -42910,7 +42914,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>2505</v>
       </c>
@@ -42954,7 +42958,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>1519</v>
       </c>
@@ -42998,7 +43002,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>1920</v>
       </c>
@@ -43042,7 +43046,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>2782</v>
       </c>
@@ -43086,7 +43090,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>2089</v>
       </c>
@@ -43130,7 +43134,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>2607</v>
       </c>
@@ -43174,7 +43178,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>2464</v>
       </c>
@@ -43218,7 +43222,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>335</v>
       </c>
@@ -43262,7 +43266,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>1973</v>
       </c>
@@ -43306,7 +43310,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>1006</v>
       </c>
@@ -43350,7 +43354,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>2678</v>
       </c>
@@ -43394,7 +43398,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>2103</v>
       </c>
@@ -43438,7 +43442,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>627</v>
       </c>
@@ -43482,7 +43486,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>2242</v>
       </c>
@@ -43526,7 +43530,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>2711</v>
       </c>
@@ -43570,7 +43574,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>1210</v>
       </c>
@@ -43614,7 +43618,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>692</v>
       </c>
@@ -43658,7 +43662,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>864</v>
       </c>
@@ -43702,7 +43706,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>1349</v>
       </c>
@@ -43746,7 +43750,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>1582</v>
       </c>
@@ -43790,7 +43794,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>2862</v>
       </c>
@@ -43834,7 +43838,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>23</v>
       </c>
@@ -43878,7 +43882,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>526</v>
       </c>
@@ -43922,7 +43926,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>2134</v>
       </c>
@@ -43966,7 +43970,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>422</v>
       </c>
@@ -44010,7 +44014,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>988</v>
       </c>
@@ -44054,7 +44058,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>812</v>
       </c>
@@ -44098,7 +44102,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>1589</v>
       </c>
@@ -44142,7 +44146,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>2504</v>
       </c>
@@ -44186,7 +44190,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>1707</v>
       </c>
@@ -44274,7 +44278,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>120</v>
       </c>
@@ -44318,7 +44322,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>265</v>
       </c>
@@ -44362,7 +44366,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>2499</v>
       </c>
@@ -44406,7 +44410,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>127</v>
       </c>
@@ -44450,7 +44454,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>1705</v>
       </c>
@@ -44494,7 +44498,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>415</v>
       </c>
@@ -44538,7 +44542,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>3042</v>
       </c>
@@ -44582,7 +44586,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>2098</v>
       </c>
@@ -44626,7 +44630,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>1015</v>
       </c>
@@ -44670,7 +44674,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>2454</v>
       </c>
@@ -44714,7 +44718,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>662</v>
       </c>
@@ -44758,7 +44762,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>751</v>
       </c>
@@ -44802,7 +44806,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>2336</v>
       </c>
@@ -44846,7 +44850,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>1757</v>
       </c>
@@ -44890,7 +44894,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>2779</v>
       </c>
@@ -44934,7 +44938,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>1698</v>
       </c>
@@ -44978,7 +44982,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>550</v>
       </c>
@@ -45022,7 +45026,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>746</v>
       </c>
@@ -45066,7 +45070,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>906</v>
       </c>
@@ -45110,7 +45114,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>3098</v>
       </c>
@@ -45154,7 +45158,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>1052</v>
       </c>
@@ -45198,7 +45202,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>1073</v>
       </c>
@@ -45242,7 +45246,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>1327</v>
       </c>
@@ -45286,7 +45290,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>1849</v>
       </c>
@@ -45330,7 +45334,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>1550</v>
       </c>
@@ -45374,7 +45378,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>2139</v>
       </c>
@@ -45418,7 +45422,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>2442</v>
       </c>
@@ -45462,7 +45466,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>108</v>
       </c>
@@ -45506,7 +45510,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>322</v>
       </c>
@@ -45550,7 +45554,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>2060</v>
       </c>
@@ -45594,7 +45598,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>589</v>
       </c>
@@ -45638,7 +45642,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>198</v>
       </c>
@@ -45682,7 +45686,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>1485</v>
       </c>
@@ -45726,7 +45730,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>2136</v>
       </c>
@@ -45770,7 +45774,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>3200</v>
       </c>
@@ -45814,7 +45818,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>2693</v>
       </c>
@@ -45858,7 +45862,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>1335</v>
       </c>
@@ -45902,7 +45906,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>1171</v>
       </c>
@@ -45946,7 +45950,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>1935</v>
       </c>
@@ -45990,7 +45994,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>1097</v>
       </c>
@@ -46034,7 +46038,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>1307</v>
       </c>
@@ -46078,7 +46082,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>1300</v>
       </c>
@@ -46122,7 +46126,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>2587</v>
       </c>
@@ -46166,7 +46170,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>964</v>
       </c>
@@ -46210,7 +46214,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>1093</v>
       </c>
@@ -46254,7 +46258,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>1199</v>
       </c>
@@ -46298,7 +46302,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>2259</v>
       </c>
@@ -46342,7 +46346,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>1169</v>
       </c>
@@ -46386,7 +46390,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>2575</v>
       </c>
@@ -46430,7 +46434,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>1889</v>
       </c>
@@ -46474,7 +46478,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>2267</v>
       </c>
@@ -46518,7 +46522,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>78</v>
       </c>
@@ -46562,7 +46566,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>55</v>
       </c>
@@ -46606,7 +46610,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>725</v>
       </c>
@@ -46650,7 +46654,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>1927</v>
       </c>
@@ -46694,7 +46698,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>398</v>
       </c>
@@ -46738,7 +46742,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>2554</v>
       </c>
@@ -46782,7 +46786,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>2293</v>
       </c>
@@ -46826,7 +46830,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>2978</v>
       </c>
@@ -46870,7 +46874,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>1443</v>
       </c>
@@ -46914,7 +46918,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>342</v>
       </c>
@@ -46958,7 +46962,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>1719</v>
       </c>
@@ -47002,7 +47006,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>2004</v>
       </c>
@@ -47046,7 +47050,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>784</v>
       </c>
@@ -47090,7 +47094,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>3061</v>
       </c>
@@ -47134,7 +47138,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>559</v>
       </c>
@@ -47178,7 +47182,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>978</v>
       </c>
@@ -47222,7 +47226,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>1387</v>
       </c>
@@ -47266,7 +47270,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>499</v>
       </c>
@@ -47310,7 +47314,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>1439</v>
       </c>
@@ -47354,7 +47358,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>3130</v>
       </c>
@@ -47398,7 +47402,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>1526</v>
       </c>
@@ -47442,7 +47446,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>1229</v>
       </c>
@@ -47486,7 +47490,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>780</v>
       </c>
@@ -47530,7 +47534,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>936</v>
       </c>
@@ -47574,7 +47578,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>2820</v>
       </c>
@@ -47618,7 +47622,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>3118</v>
       </c>
@@ -47662,7 +47666,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>750</v>
       </c>
@@ -47706,7 +47710,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>2948</v>
       </c>
@@ -47750,7 +47754,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>1818</v>
       </c>
@@ -47794,7 +47798,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>1715</v>
       </c>
@@ -47838,7 +47842,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>2667</v>
       </c>
@@ -47882,7 +47886,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>2818</v>
       </c>
@@ -47926,7 +47930,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>175</v>
       </c>
@@ -47970,7 +47974,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>2701</v>
       </c>
@@ -48014,7 +48018,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>338</v>
       </c>
@@ -48058,7 +48062,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>1372</v>
       </c>
@@ -48102,7 +48106,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="878" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>399</v>
       </c>
@@ -48146,7 +48150,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="879" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>2734</v>
       </c>
@@ -48190,7 +48194,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="880" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>2663</v>
       </c>
@@ -48234,7 +48238,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="881" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>2951</v>
       </c>
@@ -48278,7 +48282,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="882" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>733</v>
       </c>
@@ -48322,7 +48326,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="883" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>374</v>
       </c>
@@ -48366,7 +48370,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="884" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>1949</v>
       </c>
@@ -48410,7 +48414,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="885" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>48</v>
       </c>
@@ -48454,7 +48458,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="886" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>3020</v>
       </c>
@@ -48498,7 +48502,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="887" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>749</v>
       </c>
@@ -48542,7 +48546,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="888" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>1336</v>
       </c>
@@ -48586,7 +48590,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="889" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>2390</v>
       </c>
@@ -48630,7 +48634,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="890" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>851</v>
       </c>
@@ -48674,7 +48678,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="891" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>2394</v>
       </c>
@@ -48718,7 +48722,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="892" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>1062</v>
       </c>
@@ -48762,7 +48766,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="893" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>1024</v>
       </c>
@@ -48806,7 +48810,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="894" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>1261</v>
       </c>
@@ -48850,7 +48854,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="895" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>2029</v>
       </c>
@@ -48894,7 +48898,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="896" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>267</v>
       </c>
@@ -48938,7 +48942,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="897" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>3140</v>
       </c>
@@ -48982,7 +48986,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="898" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>2599</v>
       </c>
@@ -49026,7 +49030,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="899" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>1505</v>
       </c>
@@ -49070,7 +49074,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="900" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>2736</v>
       </c>
@@ -49114,7 +49118,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="901" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>2444</v>
       </c>
@@ -49158,7 +49162,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="902" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>212</v>
       </c>
@@ -49202,7 +49206,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="903" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>1226</v>
       </c>
@@ -49246,7 +49250,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="904" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>2381</v>
       </c>
@@ -49334,7 +49338,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="906" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>182</v>
       </c>
@@ -49378,7 +49382,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="907" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>1340</v>
       </c>
@@ -49422,7 +49426,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="908" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>663</v>
       </c>
@@ -49466,7 +49470,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="909" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>167</v>
       </c>
@@ -49510,7 +49514,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="910" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>3143</v>
       </c>
@@ -49554,7 +49558,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="911" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>1571</v>
       </c>
@@ -49598,7 +49602,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="912" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>1216</v>
       </c>
@@ -49642,7 +49646,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="913" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>237</v>
       </c>
@@ -49686,7 +49690,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="914" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>1524</v>
       </c>
@@ -49730,7 +49734,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="915" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>218</v>
       </c>
@@ -49774,7 +49778,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="916" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>2508</v>
       </c>
@@ -49818,7 +49822,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="917" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>1873</v>
       </c>
@@ -49862,7 +49866,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="918" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>1378</v>
       </c>
@@ -49950,7 +49954,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="920" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>2924</v>
       </c>
@@ -49994,7 +49998,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="921" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>316</v>
       </c>
@@ -50038,7 +50042,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="922" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>531</v>
       </c>
@@ -50082,7 +50086,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="923" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>435</v>
       </c>
@@ -50126,7 +50130,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="924" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>1381</v>
       </c>
@@ -50170,7 +50174,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="925" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>2606</v>
       </c>
@@ -50214,7 +50218,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="926" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>2402</v>
       </c>
@@ -50258,7 +50262,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="927" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>761</v>
       </c>
@@ -50302,7 +50306,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="928" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>1447</v>
       </c>
@@ -50346,7 +50350,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="929" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>1724</v>
       </c>
@@ -50390,7 +50394,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="930" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>1050</v>
       </c>
@@ -50434,7 +50438,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="931" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>443</v>
       </c>
@@ -50478,7 +50482,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="932" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>974</v>
       </c>
@@ -50522,7 +50526,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="933" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>534</v>
       </c>
@@ -50566,7 +50570,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="934" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>289</v>
       </c>
@@ -50610,7 +50614,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="935" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>2046</v>
       </c>
@@ -50654,7 +50658,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="936" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>2614</v>
       </c>
@@ -50698,7 +50702,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="937" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>2652</v>
       </c>
@@ -50742,7 +50746,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="938" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>1303</v>
       </c>
@@ -50786,7 +50790,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="939" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>2638</v>
       </c>
@@ -50830,7 +50834,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="940" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>2865</v>
       </c>
@@ -50874,7 +50878,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="941" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>640</v>
       </c>
@@ -50962,7 +50966,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="943" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>333</v>
       </c>
@@ -51006,7 +51010,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="944" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>1722</v>
       </c>
@@ -51050,7 +51054,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="945" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>1437</v>
       </c>
@@ -51094,7 +51098,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="946" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>806</v>
       </c>
@@ -51138,7 +51142,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="947" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>1563</v>
       </c>
@@ -51182,7 +51186,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="948" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>878</v>
       </c>
@@ -51226,7 +51230,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="949" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>2968</v>
       </c>
@@ -51270,7 +51274,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="950" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>1876</v>
       </c>
@@ -51314,7 +51318,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="951" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>2686</v>
       </c>
@@ -51358,7 +51362,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="952" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>513</v>
       </c>
@@ -51402,7 +51406,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="953" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>3165</v>
       </c>
@@ -51446,7 +51450,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="954" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>1847</v>
       </c>
@@ -51490,7 +51494,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="955" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>1994</v>
       </c>
@@ -51534,7 +51538,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="956" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>201</v>
       </c>
@@ -51578,7 +51582,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="957" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>960</v>
       </c>
@@ -51622,7 +51626,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="958" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>1475</v>
       </c>
@@ -51666,7 +51670,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="959" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>3149</v>
       </c>
@@ -51710,7 +51714,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="960" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>877</v>
       </c>
@@ -51754,7 +51758,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="961" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>2122</v>
       </c>
@@ -51798,7 +51802,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="962" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>923</v>
       </c>
@@ -51842,7 +51846,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="963" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>1809</v>
       </c>
@@ -51886,7 +51890,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="964" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>3209</v>
       </c>
@@ -51930,7 +51934,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="965" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>1951</v>
       </c>
@@ -51974,7 +51978,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="966" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>2566</v>
       </c>
@@ -52018,7 +52022,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="967" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>2925</v>
       </c>
@@ -52062,7 +52066,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="968" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>3087</v>
       </c>
@@ -52106,7 +52110,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="969" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>2040</v>
       </c>
@@ -52150,7 +52154,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="970" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>1755</v>
       </c>
@@ -52194,7 +52198,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="971" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>965</v>
       </c>
@@ -52238,7 +52242,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="972" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>2019</v>
       </c>
@@ -52282,7 +52286,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="973" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>843</v>
       </c>
@@ -52326,7 +52330,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="974" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>1593</v>
       </c>
@@ -52370,7 +52374,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="975" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>2494</v>
       </c>
@@ -52414,7 +52418,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="976" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>2250</v>
       </c>
@@ -52458,7 +52462,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="977" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>1498</v>
       </c>
@@ -52502,7 +52506,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="978" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>356</v>
       </c>
@@ -52546,7 +52550,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="979" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>1432</v>
       </c>
@@ -52590,7 +52594,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="980" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>25</v>
       </c>
@@ -52634,7 +52638,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="981" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>488</v>
       </c>
@@ -52678,7 +52682,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="982" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>423</v>
       </c>
@@ -52722,7 +52726,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="983" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>2028</v>
       </c>
@@ -52766,7 +52770,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="984" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>1521</v>
       </c>
@@ -52810,7 +52814,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="985" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>2780</v>
       </c>
@@ -52854,7 +52858,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="986" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>2316</v>
       </c>
@@ -52898,7 +52902,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="987" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>2247</v>
       </c>
@@ -52942,7 +52946,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="988" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>2408</v>
       </c>
@@ -52986,7 +52990,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="989" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>3184</v>
       </c>
@@ -53030,7 +53034,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="990" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>1680</v>
       </c>
@@ -53074,7 +53078,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="991" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>2585</v>
       </c>
@@ -53118,7 +53122,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="992" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>1561</v>
       </c>
@@ -53162,7 +53166,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="993" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>2632</v>
       </c>
@@ -53206,7 +53210,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="994" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>439</v>
       </c>
@@ -53250,7 +53254,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="995" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>461</v>
       </c>
@@ -53294,7 +53298,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="996" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>1419</v>
       </c>
@@ -53338,7 +53342,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="997" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>2986</v>
       </c>
@@ -53382,7 +53386,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="998" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>2031</v>
       </c>
@@ -53426,7 +53430,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="999" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>1627</v>
       </c>
@@ -53470,7 +53474,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="1000" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>2175</v>
       </c>
@@ -53514,7 +53518,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1001" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1001">
         <v>1788</v>
       </c>
@@ -53559,6 +53563,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1001" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="live"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
